--- a/forms/contact/district_hospital-create.xlsx
+++ b/forms/contact/district_hospital-create.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="267">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -143,7 +143,7 @@
     <t xml:space="preserve">db-object</t>
   </si>
   <si>
-    <t xml:space="preserve">/data/contact/meta/created_by</t>
+    <t xml:space="preserve">/data/inputs/user/contact_id</t>
   </si>
   <si>
     <t xml:space="preserve">note</t>
@@ -161,7 +161,7 @@
     <t xml:space="preserve">hidden</t>
   </si>
   <si>
-    <t xml:space="preserve">/data/contact/meta/created_by_role</t>
+    <t xml:space="preserve">/data/inputs/contact/role</t>
   </si>
   <si>
     <t xml:space="preserve">username</t>
@@ -182,7 +182,7 @@
     <t xml:space="preserve">Nom du Contact</t>
   </si>
   <si>
-    <t xml:space="preserve">/data/contact/meta/created_by_name</t>
+    <t xml:space="preserve">/data/inputs/contact/name</t>
   </si>
   <si>
     <t xml:space="preserve">external_id</t>
@@ -194,7 +194,7 @@
     <t xml:space="preserve">Code unique de l’utilisateur</t>
   </si>
   <si>
-    <t xml:space="preserve">/data/contact/meta/created_by_external_id</t>
+    <t xml:space="preserve">/data/inputs/contact/external_id</t>
   </si>
   <si>
     <t xml:space="preserve">district_hospital</t>
@@ -581,25 +581,13 @@
     <t xml:space="preserve">created_by</t>
   </si>
   <si>
-    <t xml:space="preserve">/data/inputs/user/contact_id</t>
-  </si>
-  <si>
     <t xml:space="preserve">created_by_role</t>
   </si>
   <si>
-    <t xml:space="preserve">/data/inputs/contact/role</t>
-  </si>
-  <si>
     <t xml:space="preserve">created_by_external_id</t>
   </si>
   <si>
-    <t xml:space="preserve">/data/inputs/contact/external_id</t>
-  </si>
-  <si>
     <t xml:space="preserve">created_by_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/data/inputs/contact/name</t>
   </si>
   <si>
     <t xml:space="preserve">created_by_place</t>
@@ -1065,7 +1053,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1102,7 +1090,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1118,11 +1106,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1167,6 +1155,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1378,10 +1370,10 @@
   </sheetPr>
   <dimension ref="A1:Q1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="L39" activeCellId="0" sqref="L39"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="L10" activeCellId="0" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1599,7 +1591,7 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="L10" s="0" t="s">
+      <c r="L10" s="7" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1623,7 +1615,7 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="L11" s="0" t="s">
+      <c r="L11" s="7" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1669,28 +1661,28 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="L13" s="14" t="s">
+      <c r="L13" s="7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="14" s="15" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="15" t="s">
+    <row r="14" s="14" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="14" t="s">
         <v>55</v>
       </c>
       <c r="H14" s="15" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="L14" s="15" t="s">
+      <c r="L14" s="7" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1922,20 +1914,20 @@
     </row>
     <row r="28" s="16" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="29" s="16" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="30" s="15" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="15" t="s">
+    <row r="30" s="14" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="15" t="s">
+      <c r="C30" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="D30" s="15" t="s">
+      <c r="D30" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="G30" s="15" t="s">
+      <c r="G30" s="14" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2484,10 +2476,10 @@
       <c r="E50" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="F50" s="14" t="s">
+      <c r="F50" s="26" t="s">
         <v>168</v>
       </c>
-      <c r="L50" s="14" t="s">
+      <c r="L50" s="26" t="s">
         <v>169</v>
       </c>
       <c r="N50" s="24" t="s">
@@ -2513,8 +2505,8 @@
       <c r="E51" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="F51" s="14"/>
-      <c r="L51" s="14" t="s">
+      <c r="F51" s="26"/>
+      <c r="L51" s="26" t="s">
         <v>172</v>
       </c>
       <c r="N51" s="24" t="s">
@@ -2560,10 +2552,10 @@
       <c r="K53" s="18" t="s">
         <v>178</v>
       </c>
-      <c r="N53" s="26" t="s">
+      <c r="N53" s="27" t="s">
         <v>179</v>
       </c>
-      <c r="O53" s="26" t="s">
+      <c r="O53" s="27" t="s">
         <v>179</v>
       </c>
     </row>
@@ -2589,10 +2581,10 @@
       <c r="K54" s="18" t="s">
         <v>178</v>
       </c>
-      <c r="N54" s="26" t="s">
+      <c r="N54" s="27" t="s">
         <v>179</v>
       </c>
-      <c r="O54" s="26" t="s">
+      <c r="O54" s="27" t="s">
         <v>179</v>
       </c>
     </row>
@@ -2638,7 +2630,7 @@
       <c r="J57" s="7"/>
       <c r="K57" s="7"/>
       <c r="L57" s="7" t="s">
-        <v>185</v>
+        <v>39</v>
       </c>
       <c r="M57" s="7"/>
       <c r="P57" s="7"/>
@@ -2648,13 +2640,13 @@
         <v>72</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E58" s="7"/>
       <c r="F58" s="7"/>
@@ -2662,7 +2654,7 @@
       <c r="J58" s="7"/>
       <c r="K58" s="7"/>
       <c r="L58" s="7" t="s">
-        <v>187</v>
+        <v>45</v>
       </c>
       <c r="M58" s="7"/>
       <c r="P58" s="7"/>
@@ -2672,13 +2664,13 @@
         <v>72</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E59" s="7"/>
       <c r="F59" s="7"/>
@@ -2686,7 +2678,7 @@
       <c r="J59" s="7"/>
       <c r="K59" s="7"/>
       <c r="L59" s="7" t="s">
-        <v>189</v>
+        <v>56</v>
       </c>
       <c r="M59" s="7"/>
       <c r="P59" s="7"/>
@@ -2696,13 +2688,13 @@
         <v>72</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E60" s="7"/>
       <c r="F60" s="7"/>
@@ -2710,7 +2702,7 @@
       <c r="J60" s="7"/>
       <c r="K60" s="7"/>
       <c r="L60" s="7" t="s">
-        <v>191</v>
+        <v>52</v>
       </c>
       <c r="M60" s="7"/>
       <c r="P60" s="7"/>
@@ -2720,13 +2712,13 @@
         <v>72</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="E61" s="7"/>
       <c r="F61" s="7"/>
@@ -2734,7 +2726,7 @@
       <c r="J61" s="7"/>
       <c r="K61" s="7"/>
       <c r="L61" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="M61" s="7"/>
       <c r="P61" s="7"/>
@@ -2759,11 +2751,11 @@
         <v>81</v>
       </c>
       <c r="L63" s="18" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="64" s="15" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="64" s="14" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A64" s="14" t="s">
         <v>30</v>
       </c>
     </row>
@@ -3885,7 +3877,7 @@
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <conditionalFormatting sqref="A1 A71:A1048576 A13:A14 A31:A36 A51:A52 A42:A49 A57:A61 A40 A11 A20:A26">
+  <conditionalFormatting sqref="A1 A71:A1048576 A13:A14 A31:A36 A51:A52 A57:A61 A40 A11 A20:A26 A42:A49">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"begin group"</formula>
     </cfRule>
@@ -3928,7 +3920,7 @@
   <dimension ref="A1:BL1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F24" activeCellId="0" sqref="F24"/>
+      <selection pane="topLeft" activeCell="F24" activeCellId="1" sqref="L10 F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3940,213 +3932,213 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="C3" s="30" t="s">
         <v>195</v>
       </c>
-      <c r="B1" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="28" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="29" t="s">
+      <c r="D3" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="B2" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="C2" s="29" t="s">
+    </row>
+    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="31" t="s">
         <v>197</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="B4" s="31" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="B3" s="29" t="s">
-        <v>138</v>
-      </c>
-      <c r="C3" s="29" t="s">
+      <c r="C4" s="31" t="s">
         <v>199</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D4" s="32" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="30" t="s">
+    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="31" t="s">
+        <v>197</v>
+      </c>
+      <c r="B5" s="31" t="s">
         <v>201</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="C5" s="31" t="s">
         <v>202</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="D5" s="32" t="s">
         <v>203</v>
       </c>
-      <c r="D4" s="31" t="s">
+    </row>
+    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="31" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="30" t="s">
+      <c r="B6" s="31" t="s">
+        <v>198</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>205</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="31" t="s">
+        <v>204</v>
+      </c>
+      <c r="B7" s="31" t="s">
         <v>201</v>
       </c>
-      <c r="B5" s="30" t="s">
-        <v>205</v>
-      </c>
-      <c r="C5" s="30" t="s">
-        <v>206</v>
-      </c>
-      <c r="D5" s="31" t="s">
+      <c r="C7" s="31" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="30" t="s">
+      <c r="D7" s="32" t="s">
         <v>208</v>
-      </c>
-      <c r="B6" s="30" t="s">
-        <v>202</v>
-      </c>
-      <c r="C6" s="30" t="s">
-        <v>209</v>
-      </c>
-      <c r="D6" s="31" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="30" t="s">
-        <v>208</v>
-      </c>
-      <c r="B7" s="30" t="s">
-        <v>205</v>
-      </c>
-      <c r="C7" s="30" t="s">
-        <v>211</v>
-      </c>
-      <c r="D7" s="31" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="B8" s="32" t="s">
-        <v>214</v>
+        <v>209</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>210</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" s="35" t="s">
         <v>213</v>
       </c>
-      <c r="B9" s="33" t="s">
-        <v>102</v>
-      </c>
-      <c r="C9" s="34" t="s">
+      <c r="D9" s="0" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="30" t="s">
+        <v>215</v>
+      </c>
+      <c r="B10" s="34" t="s">
+        <v>216</v>
+      </c>
+      <c r="C10" s="19" t="s">
         <v>217</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D10" s="0" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="29" t="s">
+    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="30" t="s">
+        <v>215</v>
+      </c>
+      <c r="B11" s="34" t="s">
         <v>219</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="C11" s="19" t="s">
         <v>220</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="D11" s="0" t="s">
         <v>221</v>
       </c>
-      <c r="D10" s="0" t="s">
+    </row>
+    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="30" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="29" t="s">
-        <v>219</v>
-      </c>
-      <c r="B11" s="33" t="s">
+      <c r="B12" s="34" t="s">
         <v>223</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C12" s="19" t="s">
         <v>224</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D12" s="17" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="30" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="29" t="s">
+      <c r="B13" s="34" t="s">
         <v>226</v>
       </c>
-      <c r="B12" s="33" t="s">
+      <c r="C13" s="19" t="s">
         <v>227</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="D13" s="32" t="s">
         <v>228</v>
       </c>
-      <c r="D12" s="17" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="29" t="s">
+    </row>
+    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="30" t="s">
+        <v>225</v>
+      </c>
+      <c r="B14" s="34" t="s">
         <v>229</v>
       </c>
-      <c r="B13" s="33" t="s">
+      <c r="C14" s="19" t="s">
         <v>230</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="D14" s="0" t="s">
         <v>231</v>
-      </c>
-      <c r="D13" s="31" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="29" t="s">
-        <v>229</v>
-      </c>
-      <c r="B14" s="33" t="s">
-        <v>233</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>234</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="15" s="7" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="B15" s="32" t="s">
-        <v>230</v>
-      </c>
-      <c r="C15" s="34" t="s">
-        <v>231</v>
-      </c>
-      <c r="D15" s="31" t="s">
         <v>232</v>
+      </c>
+      <c r="B15" s="33" t="s">
+        <v>226</v>
+      </c>
+      <c r="C15" s="35" t="s">
+        <v>227</v>
+      </c>
+      <c r="D15" s="32" t="s">
+        <v>228</v>
       </c>
       <c r="V15" s="0"/>
       <c r="W15" s="0"/>
@@ -4194,16 +4186,16 @@
     </row>
     <row r="16" s="7" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="B16" s="32" t="s">
-        <v>237</v>
-      </c>
-      <c r="C16" s="34" t="s">
-        <v>238</v>
-      </c>
-      <c r="D16" s="31" t="s">
-        <v>239</v>
+        <v>232</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>233</v>
+      </c>
+      <c r="C16" s="35" t="s">
+        <v>234</v>
+      </c>
+      <c r="D16" s="32" t="s">
+        <v>235</v>
       </c>
       <c r="V16" s="0"/>
       <c r="W16" s="0"/>
@@ -4251,16 +4243,16 @@
     </row>
     <row r="17" s="7" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="B17" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>240</v>
-      </c>
       <c r="C17" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="D17" s="31" t="s">
-        <v>241</v>
+        <v>237</v>
+      </c>
+      <c r="D17" s="32" t="s">
+        <v>237</v>
       </c>
       <c r="V17" s="0"/>
       <c r="W17" s="0"/>
@@ -4308,16 +4300,16 @@
     </row>
     <row r="18" s="7" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="D18" s="31" t="s">
-        <v>244</v>
+        <v>239</v>
+      </c>
+      <c r="D18" s="32" t="s">
+        <v>240</v>
       </c>
       <c r="V18" s="0"/>
       <c r="W18" s="0"/>
@@ -5367,7 +5359,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L15" activeCellId="0" sqref="L15"/>
+      <selection pane="topLeft" activeCell="L15" activeCellId="1" sqref="L10 L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5383,27 +5375,27 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E1" s="36" t="s">
         <v>245</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="F1" s="36" t="s">
         <v>246</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="36" t="s">
         <v>247</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="E1" s="35" t="s">
-        <v>249</v>
-      </c>
-      <c r="F1" s="35" t="s">
-        <v>250</v>
-      </c>
-      <c r="G1" s="35" t="s">
-        <v>251</v>
-      </c>
-      <c r="H1" s="36"/>
+      <c r="H1" s="37"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -5425,23 +5417,23 @@
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="C2" s="38" t="s">
+        <v>250</v>
+      </c>
+      <c r="D2" s="17"/>
+      <c r="E2" s="37" t="s">
+        <v>251</v>
+      </c>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37" t="s">
         <v>252</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="C2" s="37" t="s">
-        <v>254</v>
-      </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="36" t="s">
-        <v>255</v>
-      </c>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36" t="s">
-        <v>256</v>
-      </c>
-      <c r="H2" s="36"/>
+      <c r="H2" s="37"/>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -6460,91 +6452,91 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="topLeft" activeCell="C3" activeCellId="1" sqref="L10 C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.3359375" defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="38" width="38.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="38" width="1.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="38" width="58.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="38" width="2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="38" width="101.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="6" style="38" width="14.5"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="27" style="38" width="17.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="39" width="38.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="39" width="1.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="39" width="58.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="39" width="2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="39" width="101.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="6" style="39" width="14.5"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="27" style="39" width="17.33"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="40" t="s">
+        <v>253</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40" t="s">
+        <v>254</v>
+      </c>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40" t="s">
+        <v>255</v>
+      </c>
+      <c r="F1" s="40"/>
+    </row>
+    <row r="2" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+    </row>
+    <row r="3" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="41" t="s">
+        <v>256</v>
+      </c>
+      <c r="B3" s="41"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+    </row>
+    <row r="4" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="41" t="s">
         <v>257</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39" t="s">
+      <c r="B4" s="41"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+    </row>
+    <row r="5" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="41" t="s">
         <v>258</v>
       </c>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39" t="s">
+      <c r="B5" s="41"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+    </row>
+    <row r="6" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="41" t="s">
         <v>259</v>
       </c>
-      <c r="F1" s="39"/>
-    </row>
-    <row r="2" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-    </row>
-    <row r="3" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="40" t="s">
+      <c r="B6" s="41"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+    </row>
+    <row r="7" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="41" t="s">
         <v>260</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-    </row>
-    <row r="4" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="40" t="s">
-        <v>261</v>
-      </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-    </row>
-    <row r="5" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="40" t="s">
-        <v>262</v>
-      </c>
-      <c r="B5" s="40"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-    </row>
-    <row r="6" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="40" t="s">
-        <v>263</v>
-      </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-    </row>
-    <row r="7" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="40" t="s">
-        <v>264</v>
-      </c>
-      <c r="B7" s="40"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -6565,7 +6557,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="L10 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6575,7 +6567,7 @@
         <v>133</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6588,10 +6580,10 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="22" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6615,7 +6607,7 @@
         <v>72</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6623,7 +6615,7 @@
         <v>72</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6639,7 +6631,7 @@
         <v>72</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
   </sheetData>

--- a/forms/contact/district_hospital-create.xlsx
+++ b/forms/contact/district_hospital-create.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="263">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -80,6 +80,9 @@
     <t xml:space="preserve">inputs</t>
   </si>
   <si>
+    <t xml:space="preserve">NO_LABEL</t>
+  </si>
+  <si>
     <t xml:space="preserve">field-list</t>
   </si>
   <si>
@@ -245,9 +248,6 @@
     <t xml:space="preserve">calculate</t>
   </si>
   <si>
-    <t xml:space="preserve">NO_LABEL</t>
-  </si>
-  <si>
     <t xml:space="preserve">"NEW"</t>
   </si>
   <si>
@@ -329,7 +329,7 @@
     <t xml:space="preserve">Méthode de date de naissance souhaité</t>
   </si>
   <si>
-    <t xml:space="preserve">horizontal</t>
+    <t xml:space="preserve">columns</t>
   </si>
   <si>
     <t xml:space="preserve">approx</t>
@@ -350,7 +350,7 @@
     <t xml:space="preserve">selected(../dob_method,'calendar')</t>
   </si>
   <si>
-    <t xml:space="preserve">.&lt;today()</t>
+    <t xml:space="preserve">. &lt;= today()</t>
   </si>
   <si>
     <t xml:space="preserve">Date must be before today</t>
@@ -507,18 +507,6 @@
   </si>
   <si>
     <t xml:space="preserve">../external_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code_z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">../code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">info</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p style="text-align:center;"&gt;&lt;b&gt;Code: &lt;/b&gt; &lt;b style="color:green;"&gt;${code_z}&lt;/b&gt;&lt;/p&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">select_one roles</t>
@@ -836,7 +824,7 @@
     <numFmt numFmtId="165" formatCode="General"/>
     <numFmt numFmtId="166" formatCode="m/d/yyyy"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -898,13 +886,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF4472C4"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF2E75B6"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -1053,7 +1034,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="44">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1114,7 +1095,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="165" fontId="6" fillId="5" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1150,20 +1131,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -1182,7 +1155,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1198,7 +1171,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1210,11 +1183,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1324,7 +1297,7 @@
       <rgbColor rgb="FFD9EAD3"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF2E75B6"/>
+      <rgbColor rgb="FF0066CC"/>
       <rgbColor rgb="FFCFE2F3"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
@@ -1371,9 +1344,9 @@
   <dimension ref="A1:Q1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="L10" activeCellId="0" sqref="L10"/>
+      <selection pane="bottomLeft" activeCell="J50" activeCellId="0" sqref="J50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1453,8 +1426,14 @@
       <c r="B2" s="5" t="s">
         <v>17</v>
       </c>
+      <c r="C2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="G2" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" s="5" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1462,7 +1441,13 @@
         <v>16</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="F3" s="6" t="b">
         <f aca="false">FALSE()</f>
@@ -1471,16 +1456,16 @@
     </row>
     <row r="4" s="8" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
@@ -1497,16 +1482,16 @@
     </row>
     <row r="5" s="8" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
@@ -1523,35 +1508,35 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="8"/>
@@ -1562,75 +1547,75 @@
         <v>16</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H10" s="9" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H11" s="9" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" s="12" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="13" t="b">
@@ -1638,62 +1623,62 @@
         <v>1</v>
       </c>
       <c r="L12" s="12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" s="12" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>1</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H13" s="13" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" s="14" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H14" s="15" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" s="5" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" s="5" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" s="16" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -1703,36 +1688,36 @@
         <v>16</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N19" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" s="8" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
@@ -1748,19 +1733,19 @@
     </row>
     <row r="21" s="8" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E21" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
@@ -1776,19 +1761,19 @@
     </row>
     <row r="22" s="8" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
@@ -1804,19 +1789,19 @@
     </row>
     <row r="23" s="8" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B23" s="17" t="s">
         <v>1</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
@@ -1832,16 +1817,16 @@
     </row>
     <row r="24" s="8" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
@@ -1855,7 +1840,7 @@
       </c>
       <c r="M24" s="7"/>
       <c r="N24" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" s="8" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1883,7 +1868,7 @@
     </row>
     <row r="26" s="21" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="20" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B26" s="20" t="s">
         <v>79</v>
@@ -1909,7 +1894,7 @@
     </row>
     <row r="27" s="5" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" s="16" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -1919,7 +1904,7 @@
         <v>16</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C30" s="14" t="s">
         <v>83</v>
@@ -1928,12 +1913,12 @@
         <v>84</v>
       </c>
       <c r="G30" s="14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" s="8" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>0</v>
@@ -1947,7 +1932,7 @@
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
       <c r="G31" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I31" s="7"/>
       <c r="J31" s="7"/>
@@ -1955,7 +1940,7 @@
       <c r="L31" s="7"/>
       <c r="M31" s="7"/>
       <c r="N31" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O31" s="8" t="s">
         <v>87</v>
@@ -1966,7 +1951,7 @@
     </row>
     <row r="32" s="8" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>89</v>
@@ -1980,7 +1965,7 @@
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
       <c r="G32" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
@@ -1990,7 +1975,7 @@
       </c>
       <c r="M32" s="7"/>
       <c r="N32" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O32" s="8" t="s">
         <v>87</v>
@@ -2001,16 +1986,16 @@
     </row>
     <row r="33" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>93</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
@@ -2022,12 +2007,12 @@
       </c>
       <c r="M33" s="7"/>
       <c r="P33" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" s="8" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>1</v>
@@ -2039,7 +2024,7 @@
         <v>96</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F34" s="7"/>
       <c r="I34" s="7"/>
@@ -2090,7 +2075,7 @@
         <v>106</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>107</v>
@@ -2120,7 +2105,7 @@
         <v>113</v>
       </c>
       <c r="E37" s="18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>114</v>
@@ -2155,7 +2140,7 @@
         <v>121</v>
       </c>
       <c r="E38" s="18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>114</v>
@@ -2181,16 +2166,16 @@
     </row>
     <row r="39" s="18" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B39" s="23" t="s">
         <v>127</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="D39" s="18" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="L39" s="7" t="s">
         <v>128</v>
@@ -2209,8 +2194,8 @@
       <c r="D40" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="E40" s="24" t="s">
-        <v>64</v>
+      <c r="E40" s="18" t="s">
+        <v>65</v>
       </c>
       <c r="F40" s="7"/>
       <c r="G40" s="8" t="s">
@@ -2223,191 +2208,193 @@
       <c r="M40" s="7"/>
       <c r="P40" s="7"/>
     </row>
-    <row r="41" s="24" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="24" t="s">
+    <row r="41" s="18" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="B41" s="24" t="s">
+      <c r="B41" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="C41" s="24" t="s">
+      <c r="C41" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="D41" s="24" t="s">
+      <c r="D41" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="E41" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="F41" s="24" t="s">
+      <c r="E41" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="F41" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="G41" s="10" t="s">
+      <c r="G41" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="P41" s="24" t="s">
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
+      <c r="N41" s="8"/>
+      <c r="O41" s="8"/>
+      <c r="P41" s="18" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="42" s="24" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="B42" s="24" t="s">
+    <row r="42" s="18" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B42" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="C42" s="24" t="s">
+      <c r="C42" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="D42" s="24" t="s">
+      <c r="D42" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="E42" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="F42" s="24" t="s">
+      <c r="E42" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="F42" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="I42" s="24" t="s">
+      <c r="I42" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="J42" s="25" t="s">
+      <c r="J42" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="K42" s="25" t="s">
+      <c r="K42" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="N42" s="25" t="s">
+      <c r="N42" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="O42" s="25" t="s">
+      <c r="O42" s="8" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="43" s="24" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="B43" s="24" t="s">
+    <row r="43" s="18" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B43" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="C43" s="24" t="s">
+      <c r="C43" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="D43" s="24" t="s">
+      <c r="D43" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="E43" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="F43" s="24" t="s">
+      <c r="E43" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="F43" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="I43" s="24" t="s">
+      <c r="I43" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="J43" s="25" t="s">
+      <c r="J43" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="K43" s="25" t="s">
+      <c r="K43" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="N43" s="25" t="s">
+      <c r="N43" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="O43" s="25" t="s">
+      <c r="O43" s="8" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="44" s="24" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="B44" s="24" t="s">
+    <row r="44" s="18" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B44" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="C44" s="24" t="s">
+      <c r="C44" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="D44" s="24" t="s">
+      <c r="D44" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="E44" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="F44" s="24" t="s">
+      <c r="E44" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="F44" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="I44" s="24" t="s">
+      <c r="I44" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="J44" s="25" t="s">
+      <c r="J44" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="K44" s="25" t="s">
+      <c r="K44" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="N44" s="25" t="s">
+      <c r="N44" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="O44" s="25" t="s">
+      <c r="O44" s="8" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="45" s="10" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="B45" s="11" t="s">
+    <row r="45" s="18" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="B45" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
-      <c r="I45" s="11"/>
-      <c r="J45" s="11"/>
-      <c r="K45" s="11"/>
-      <c r="L45" s="11" t="s">
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="M45" s="11"/>
-      <c r="P45" s="11"/>
-    </row>
-    <row r="46" s="10" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="B46" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="C46" s="11" t="s">
+      <c r="N45" s="8"/>
+      <c r="O45" s="8"/>
+    </row>
+    <row r="46" s="18" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="D46" s="11" t="s">
+      <c r="B46" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F46" s="7"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
+      <c r="L46" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="N46" s="8"/>
+      <c r="O46" s="8"/>
+    </row>
+    <row r="47" s="18" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="22" t="s">
         <v>73</v>
-      </c>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
-      <c r="I46" s="11"/>
-      <c r="J46" s="11"/>
-      <c r="K46" s="11"/>
-      <c r="L46" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="M46" s="11"/>
-      <c r="P46" s="11"/>
-    </row>
-    <row r="47" s="8" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="B47" s="7" t="s">
         <v>159</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
       <c r="F47" s="7"/>
       <c r="I47" s="7"/>
       <c r="J47" s="7"/>
@@ -2415,214 +2402,230 @@
       <c r="L47" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="M47" s="7"/>
-      <c r="P47" s="7"/>
-    </row>
-    <row r="48" s="8" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="7" t="s">
-        <v>72</v>
+      <c r="N47" s="8"/>
+      <c r="O47" s="8"/>
+    </row>
+    <row r="48" s="18" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="22" t="s">
+        <v>161</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
+        <v>162</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E48" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>164</v>
+      </c>
       <c r="I48" s="7"/>
       <c r="J48" s="7"/>
       <c r="K48" s="7"/>
-      <c r="L48" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="M48" s="7"/>
-      <c r="P48" s="7"/>
-    </row>
-    <row r="49" s="8" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="7" t="s">
-        <v>40</v>
+      <c r="L48" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="N48" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="O48" s="8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="49" s="18" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="22" t="s">
+        <v>73</v>
       </c>
       <c r="B49" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D49" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="C49" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="D49" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="E49" s="7"/>
+      <c r="E49" s="18" t="s">
+        <v>65</v>
+      </c>
       <c r="F49" s="7"/>
       <c r="I49" s="7"/>
       <c r="J49" s="7"/>
       <c r="K49" s="7"/>
-      <c r="L49" s="7"/>
-      <c r="M49" s="7"/>
-      <c r="P49" s="7"/>
-    </row>
-    <row r="50" s="24" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="24" t="s">
-        <v>165</v>
-      </c>
-      <c r="B50" s="24" t="s">
+      <c r="L49" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="N49" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="C50" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="D50" s="24" t="s">
+      <c r="O49" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="E50" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="F50" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="L50" s="26" t="s">
+    </row>
+    <row r="50" s="8" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="7"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="I50" s="7"/>
+      <c r="J50" s="7"/>
+      <c r="K50" s="7"/>
+      <c r="L50" s="7"/>
+      <c r="M50" s="7"/>
+      <c r="P50" s="7"/>
+    </row>
+    <row r="51" s="18" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B51" s="18" t="s">
         <v>169</v>
       </c>
-      <c r="N50" s="24" t="s">
+      <c r="C51" s="18" t="s">
         <v>170</v>
       </c>
-      <c r="O50" s="24" t="s">
+      <c r="D51" s="18" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="51" s="24" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="B51" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C51" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="D51" s="24" t="s">
-        <v>167</v>
-      </c>
-      <c r="E51" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="F51" s="26"/>
-      <c r="L51" s="26" t="s">
+      <c r="I51" s="18" t="s">
         <v>172</v>
       </c>
+      <c r="J51" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="K51" s="18" t="s">
+        <v>174</v>
+      </c>
       <c r="N51" s="24" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="O51" s="24" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="52" s="8" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="7"/>
-      <c r="B52" s="7"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="7"/>
-      <c r="I52" s="7"/>
-      <c r="J52" s="7"/>
-      <c r="K52" s="7"/>
-      <c r="L52" s="7"/>
-      <c r="M52" s="7"/>
-      <c r="P52" s="7"/>
-    </row>
-    <row r="53" s="18" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B53" s="18" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="52" s="18" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B52" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="C52" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="D52" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="I52" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="J52" s="18" t="s">
         <v>173</v>
       </c>
-      <c r="C53" s="18" t="s">
+      <c r="K52" s="18" t="s">
         <v>174</v>
       </c>
-      <c r="D53" s="18" t="s">
+      <c r="N52" s="24" t="s">
         <v>175</v>
       </c>
-      <c r="I53" s="18" t="s">
-        <v>176</v>
-      </c>
-      <c r="J53" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="K53" s="18" t="s">
-        <v>178</v>
-      </c>
-      <c r="N53" s="27" t="s">
+      <c r="O52" s="24" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="53" s="18" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="54" s="8" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A54" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="B54" s="25" t="s">
         <v>179</v>
       </c>
-      <c r="O53" s="27" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="54" s="18" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B54" s="18" t="s">
+      <c r="C54" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D54" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="E54" s="25"/>
+      <c r="F54" s="25"/>
+      <c r="G54" s="25"/>
+      <c r="H54" s="25"/>
+      <c r="I54" s="25"/>
+      <c r="J54" s="25"/>
+      <c r="K54" s="25"/>
+      <c r="L54" s="25"/>
+      <c r="M54" s="25"/>
+      <c r="N54" s="25"/>
+      <c r="O54" s="25"/>
+      <c r="P54" s="25"/>
+    </row>
+    <row r="55" s="8" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A55" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B55" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="C54" s="18" t="s">
+      <c r="C55" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="I55" s="7"/>
+      <c r="J55" s="7"/>
+      <c r="K55" s="7"/>
+      <c r="L55" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M55" s="7"/>
+      <c r="P55" s="7"/>
+    </row>
+    <row r="56" s="8" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A56" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B56" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="D54" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="I54" s="18" t="s">
-        <v>176</v>
-      </c>
-      <c r="J54" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="K54" s="18" t="s">
-        <v>178</v>
-      </c>
-      <c r="N54" s="27" t="s">
-        <v>179</v>
-      </c>
-      <c r="O54" s="27" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="55" s="18" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="56" s="8" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="B56" s="18" t="s">
-        <v>183</v>
-      </c>
-      <c r="C56" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="D56" s="18" t="s">
-        <v>73</v>
+      <c r="C56" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>181</v>
       </c>
       <c r="E56" s="7"/>
       <c r="F56" s="7"/>
       <c r="I56" s="7"/>
       <c r="J56" s="7"/>
       <c r="K56" s="7"/>
-      <c r="L56" s="7"/>
+      <c r="L56" s="7" t="s">
+        <v>46</v>
+      </c>
       <c r="M56" s="7"/>
       <c r="P56" s="7"/>
     </row>
     <row r="57" s="8" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E57" s="7"/>
       <c r="F57" s="7"/>
@@ -2630,23 +2633,23 @@
       <c r="J57" s="7"/>
       <c r="K57" s="7"/>
       <c r="L57" s="7" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="M57" s="7"/>
       <c r="P57" s="7"/>
     </row>
     <row r="58" s="8" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E58" s="7"/>
       <c r="F58" s="7"/>
@@ -2654,23 +2657,23 @@
       <c r="J58" s="7"/>
       <c r="K58" s="7"/>
       <c r="L58" s="7" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="M58" s="7"/>
       <c r="P58" s="7"/>
     </row>
     <row r="59" s="8" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E59" s="7"/>
       <c r="F59" s="7"/>
@@ -2678,96 +2681,64 @@
       <c r="J59" s="7"/>
       <c r="K59" s="7"/>
       <c r="L59" s="7" t="s">
-        <v>56</v>
+        <v>185</v>
       </c>
       <c r="M59" s="7"/>
       <c r="P59" s="7"/>
     </row>
     <row r="60" s="8" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="B60" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="C60" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="D60" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="E60" s="7"/>
-      <c r="F60" s="7"/>
-      <c r="I60" s="7"/>
-      <c r="J60" s="7"/>
-      <c r="K60" s="7"/>
-      <c r="L60" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="M60" s="7"/>
-      <c r="P60" s="7"/>
-    </row>
-    <row r="61" s="8" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="B61" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="C61" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="D61" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="E61" s="7"/>
-      <c r="F61" s="7"/>
-      <c r="I61" s="7"/>
-      <c r="J61" s="7"/>
-      <c r="K61" s="7"/>
-      <c r="L61" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="M61" s="7"/>
-      <c r="P61" s="7"/>
-    </row>
-    <row r="62" s="18" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="B62" s="22"/>
-    </row>
-    <row r="63" s="18" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="B63" s="22" t="s">
+      <c r="A60" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B60" s="25"/>
+      <c r="C60" s="25"/>
+      <c r="D60" s="25"/>
+      <c r="E60" s="25"/>
+      <c r="F60" s="25"/>
+      <c r="G60" s="25"/>
+      <c r="H60" s="25"/>
+      <c r="I60" s="25"/>
+      <c r="J60" s="25"/>
+      <c r="K60" s="25"/>
+      <c r="L60" s="25"/>
+      <c r="M60" s="25"/>
+      <c r="N60" s="25"/>
+      <c r="O60" s="25"/>
+      <c r="P60" s="25"/>
+    </row>
+    <row r="61" s="18" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="B61" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="C63" s="18" t="s">
+      <c r="C61" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="D63" s="18" t="s">
+      <c r="D61" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="L63" s="18" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="64" s="14" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="65" s="16" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="66" s="16" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+      <c r="L61" s="18" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="62" s="14" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A62" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="63" s="16" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="64" s="16" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="69" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="70" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="71" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="72" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="73" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="74" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="75" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="76" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="77" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="78" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="79" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="80" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -2792,12 +2763,12 @@
     <row r="99" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="100" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="101" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="102" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="103" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="105" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="106" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="107" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="108" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="109" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="110" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="112" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="113" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="114" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="115" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="116" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -3762,8 +3733,8 @@
     <row r="1075" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1076" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1077" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1078" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1079" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048466" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048467" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -3877,7 +3848,7 @@
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <conditionalFormatting sqref="A1 A71:A1048576 A13:A14 A31:A36 A51:A52 A57:A61 A40 A11 A20:A26 A42:A49">
+  <conditionalFormatting sqref="A1 A69:A1048576 A13:A14 A31:A36 A42:A50 A55:A59 A40 A11 A20:A26">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"begin group"</formula>
     </cfRule>
@@ -3920,7 +3891,7 @@
   <dimension ref="A1:BL1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F24" activeCellId="1" sqref="L10 F24"/>
+      <selection pane="topLeft" activeCell="F24" activeCellId="0" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3932,213 +3903,213 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="C3" s="28" t="s">
         <v>191</v>
       </c>
-      <c r="B1" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="29" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="30" t="s">
+      <c r="D3" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="B2" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="C2" s="30" t="s">
+    </row>
+    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="29" t="s">
         <v>193</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="B4" s="29" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="30" t="s">
-        <v>192</v>
-      </c>
-      <c r="B3" s="30" t="s">
-        <v>138</v>
-      </c>
-      <c r="C3" s="30" t="s">
+      <c r="C4" s="29" t="s">
         <v>195</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D4" s="30" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="31" t="s">
+    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="29" t="s">
+        <v>193</v>
+      </c>
+      <c r="B5" s="29" t="s">
         <v>197</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="C5" s="29" t="s">
         <v>198</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="D5" s="30" t="s">
         <v>199</v>
       </c>
-      <c r="D4" s="32" t="s">
+    </row>
+    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="29" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="31" t="s">
+      <c r="B6" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="29" t="s">
+        <v>200</v>
+      </c>
+      <c r="B7" s="29" t="s">
         <v>197</v>
       </c>
-      <c r="B5" s="31" t="s">
-        <v>201</v>
-      </c>
-      <c r="C5" s="31" t="s">
-        <v>202</v>
-      </c>
-      <c r="D5" s="32" t="s">
+      <c r="C7" s="29" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="31" t="s">
+      <c r="D7" s="30" t="s">
         <v>204</v>
-      </c>
-      <c r="B6" s="31" t="s">
-        <v>198</v>
-      </c>
-      <c r="C6" s="31" t="s">
-        <v>205</v>
-      </c>
-      <c r="D6" s="32" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="31" t="s">
-        <v>204</v>
-      </c>
-      <c r="B7" s="31" t="s">
-        <v>201</v>
-      </c>
-      <c r="C7" s="31" t="s">
-        <v>207</v>
-      </c>
-      <c r="D7" s="32" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="B8" s="33" t="s">
-        <v>210</v>
+        <v>205</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>206</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" s="33" t="s">
         <v>209</v>
       </c>
-      <c r="B9" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="C9" s="35" t="s">
+      <c r="D9" s="0" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="28" t="s">
+        <v>211</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>212</v>
+      </c>
+      <c r="C10" s="19" t="s">
         <v>213</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D10" s="0" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="30" t="s">
+    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="28" t="s">
+        <v>211</v>
+      </c>
+      <c r="B11" s="32" t="s">
         <v>215</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="C11" s="19" t="s">
         <v>216</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="D11" s="0" t="s">
         <v>217</v>
       </c>
-      <c r="D10" s="0" t="s">
+    </row>
+    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="28" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="30" t="s">
-        <v>215</v>
-      </c>
-      <c r="B11" s="34" t="s">
+      <c r="B12" s="32" t="s">
         <v>219</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C12" s="19" t="s">
         <v>220</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D12" s="17" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="28" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="30" t="s">
+      <c r="B13" s="32" t="s">
         <v>222</v>
       </c>
-      <c r="B12" s="34" t="s">
+      <c r="C13" s="19" t="s">
         <v>223</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="D13" s="30" t="s">
         <v>224</v>
       </c>
-      <c r="D12" s="17" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="30" t="s">
+    </row>
+    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="B14" s="32" t="s">
         <v>225</v>
       </c>
-      <c r="B13" s="34" t="s">
+      <c r="C14" s="19" t="s">
         <v>226</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="D14" s="0" t="s">
         <v>227</v>
-      </c>
-      <c r="D13" s="32" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="30" t="s">
-        <v>225</v>
-      </c>
-      <c r="B14" s="34" t="s">
-        <v>229</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>230</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="15" s="7" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="B15" s="33" t="s">
-        <v>226</v>
-      </c>
-      <c r="C15" s="35" t="s">
-        <v>227</v>
-      </c>
-      <c r="D15" s="32" t="s">
         <v>228</v>
+      </c>
+      <c r="B15" s="31" t="s">
+        <v>222</v>
+      </c>
+      <c r="C15" s="33" t="s">
+        <v>223</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>224</v>
       </c>
       <c r="V15" s="0"/>
       <c r="W15" s="0"/>
@@ -4186,16 +4157,16 @@
     </row>
     <row r="16" s="7" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="B16" s="33" t="s">
-        <v>233</v>
-      </c>
-      <c r="C16" s="35" t="s">
-        <v>234</v>
-      </c>
-      <c r="D16" s="32" t="s">
-        <v>235</v>
+        <v>228</v>
+      </c>
+      <c r="B16" s="31" t="s">
+        <v>229</v>
+      </c>
+      <c r="C16" s="33" t="s">
+        <v>230</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>231</v>
       </c>
       <c r="V16" s="0"/>
       <c r="W16" s="0"/>
@@ -4243,16 +4214,16 @@
     </row>
     <row r="17" s="7" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="B17" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>236</v>
-      </c>
       <c r="C17" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="D17" s="32" t="s">
-        <v>237</v>
+        <v>233</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>233</v>
       </c>
       <c r="V17" s="0"/>
       <c r="W17" s="0"/>
@@ -4300,16 +4271,16 @@
     </row>
     <row r="18" s="7" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="D18" s="32" t="s">
-        <v>240</v>
+        <v>235</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>236</v>
       </c>
       <c r="V18" s="0"/>
       <c r="W18" s="0"/>
@@ -5359,7 +5330,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L15" activeCellId="1" sqref="L10 L15"/>
+      <selection pane="topLeft" activeCell="L15" activeCellId="0" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5375,27 +5346,27 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E1" s="34" t="s">
         <v>241</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="F1" s="34" t="s">
         <v>242</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="34" t="s">
         <v>243</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="E1" s="36" t="s">
-        <v>245</v>
-      </c>
-      <c r="F1" s="36" t="s">
-        <v>246</v>
-      </c>
-      <c r="G1" s="36" t="s">
-        <v>247</v>
-      </c>
-      <c r="H1" s="37"/>
+      <c r="H1" s="35"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -5417,23 +5388,23 @@
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="D2" s="17"/>
+      <c r="E2" s="35" t="s">
+        <v>247</v>
+      </c>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35" t="s">
         <v>248</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="C2" s="38" t="s">
-        <v>250</v>
-      </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="37" t="s">
-        <v>251</v>
-      </c>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37" t="s">
-        <v>252</v>
-      </c>
-      <c r="H2" s="37"/>
+      <c r="H2" s="35"/>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -6452,91 +6423,91 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="1" sqref="L10 C3"/>
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.3359375" defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="39" width="38.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="39" width="1.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="39" width="58.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="39" width="2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="39" width="101.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="6" style="39" width="14.5"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="27" style="39" width="17.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="37" width="38.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="37" width="1.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="37" width="58.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="37" width="2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="37" width="101.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="6" style="37" width="14.5"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="27" style="37" width="17.33"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="38" t="s">
+        <v>249</v>
+      </c>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38" t="s">
+        <v>250</v>
+      </c>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38" t="s">
+        <v>251</v>
+      </c>
+      <c r="F1" s="38"/>
+    </row>
+    <row r="2" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="39"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+    </row>
+    <row r="3" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="39" t="s">
+        <v>252</v>
+      </c>
+      <c r="B3" s="39"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+    </row>
+    <row r="4" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="39" t="s">
         <v>253</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40" t="s">
+      <c r="B4" s="39"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+    </row>
+    <row r="5" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="39" t="s">
         <v>254</v>
       </c>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40" t="s">
+      <c r="B5" s="39"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+    </row>
+    <row r="6" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="39" t="s">
         <v>255</v>
       </c>
-      <c r="F1" s="40"/>
-    </row>
-    <row r="2" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-    </row>
-    <row r="3" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="41" t="s">
+      <c r="B6" s="39"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+    </row>
+    <row r="7" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="39" t="s">
         <v>256</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-    </row>
-    <row r="4" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="41" t="s">
-        <v>257</v>
-      </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-    </row>
-    <row r="5" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="41" t="s">
-        <v>258</v>
-      </c>
-      <c r="B5" s="41"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-    </row>
-    <row r="6" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="41" t="s">
-        <v>259</v>
-      </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-    </row>
-    <row r="7" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="41" t="s">
-        <v>260</v>
-      </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -6557,7 +6528,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="L10 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6567,7 +6538,7 @@
         <v>133</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6580,10 +6551,10 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="22" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6604,23 +6575,23 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="22" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="18" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="18" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B8" s="18" t="s">
         <v>127</v>
@@ -6628,10 +6599,10 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="18" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -6639,8 +6610,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;Kffffff&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>